--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.1782731012318</v>
+        <v>2.4135925</v>
       </c>
       <c r="H2">
-        <v>2.1782731012318</v>
+        <v>4.827185</v>
       </c>
       <c r="I2">
-        <v>0.1032174424793571</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J2">
-        <v>0.1032174424793571</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>4.72021535715015</v>
+        <v>2.170377</v>
       </c>
       <c r="N2">
-        <v>4.72021535715015</v>
+        <v>4.340754</v>
       </c>
       <c r="O2">
-        <v>0.2539109598758298</v>
+        <v>0.1015511790371702</v>
       </c>
       <c r="P2">
-        <v>0.2539109598758298</v>
+        <v>0.07285982038608425</v>
       </c>
       <c r="Q2">
-        <v>10.28191814450143</v>
+        <v>5.2384056493725</v>
       </c>
       <c r="R2">
-        <v>10.28191814450143</v>
+        <v>20.95362259749</v>
       </c>
       <c r="S2">
-        <v>0.0262080398958618</v>
+        <v>0.01021774021050418</v>
       </c>
       <c r="T2">
-        <v>0.0262080398958618</v>
+        <v>0.005105010604678018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.1782731012318</v>
+        <v>2.4135925</v>
       </c>
       <c r="H3">
-        <v>2.1782731012318</v>
+        <v>4.827185</v>
       </c>
       <c r="I3">
-        <v>0.1032174424793571</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J3">
-        <v>0.1032174424793571</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.80976776352595</v>
+        <v>5.061974333333333</v>
       </c>
       <c r="N3">
-        <v>3.80976776352595</v>
+        <v>15.185923</v>
       </c>
       <c r="O3">
-        <v>0.2049359439237332</v>
+        <v>0.2368480046581279</v>
       </c>
       <c r="P3">
-        <v>0.2049359439237332</v>
+        <v>0.2548966428820674</v>
       </c>
       <c r="Q3">
-        <v>8.29871464122861</v>
+        <v>12.21754328612583</v>
       </c>
       <c r="R3">
-        <v>8.29871464122861</v>
+        <v>73.30525971675499</v>
       </c>
       <c r="S3">
-        <v>0.02115296400390067</v>
+        <v>0.02383085458896778</v>
       </c>
       <c r="T3">
-        <v>0.02115296400390067</v>
+        <v>0.01785963866112289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.1782731012318</v>
+        <v>2.4135925</v>
       </c>
       <c r="H4">
-        <v>2.1782731012318</v>
+        <v>4.827185</v>
       </c>
       <c r="I4">
-        <v>0.1032174424793571</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J4">
-        <v>0.1032174424793571</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.58071370113964</v>
+        <v>3.815520666666667</v>
       </c>
       <c r="N4">
-        <v>4.58071370113964</v>
+        <v>11.446562</v>
       </c>
       <c r="O4">
-        <v>0.2464068532404745</v>
+        <v>0.1785268745202745</v>
       </c>
       <c r="P4">
-        <v>0.2464068532404745</v>
+        <v>0.1921312406457904</v>
       </c>
       <c r="Q4">
-        <v>9.978045439636441</v>
+        <v>9.209112064661667</v>
       </c>
       <c r="R4">
-        <v>9.978045439636441</v>
+        <v>55.25467238797</v>
       </c>
       <c r="S4">
-        <v>0.02543348520086805</v>
+        <v>0.01796277740678681</v>
       </c>
       <c r="T4">
-        <v>0.02543348520086805</v>
+        <v>0.01346190555767602</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.1782731012318</v>
+        <v>2.4135925</v>
       </c>
       <c r="H5">
-        <v>2.1782731012318</v>
+        <v>4.827185</v>
       </c>
       <c r="I5">
-        <v>0.1032174424793571</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J5">
-        <v>0.1032174424793571</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.11321536901337</v>
+        <v>4.666218666666667</v>
       </c>
       <c r="N5">
-        <v>3.11321536901337</v>
+        <v>13.998656</v>
       </c>
       <c r="O5">
-        <v>0.1674668299718481</v>
+        <v>0.2183307357409577</v>
       </c>
       <c r="P5">
-        <v>0.1674668299718481</v>
+        <v>0.2349682939430755</v>
       </c>
       <c r="Q5">
-        <v>6.781433296663256</v>
+        <v>11.26235037722667</v>
       </c>
       <c r="R5">
-        <v>6.781433296663256</v>
+        <v>67.57410226336</v>
       </c>
       <c r="S5">
-        <v>0.0172854978898195</v>
+        <v>0.0219677088825606</v>
       </c>
       <c r="T5">
-        <v>0.0172854978898195</v>
+        <v>0.01646333501765812</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.1782731012318</v>
+        <v>2.4135925</v>
       </c>
       <c r="H6">
-        <v>2.1782731012318</v>
+        <v>4.827185</v>
       </c>
       <c r="I6">
-        <v>0.1032174424793571</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J6">
-        <v>0.1032174424793571</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.36612960751815</v>
+        <v>3.288577</v>
       </c>
       <c r="N6">
-        <v>2.36612960751815</v>
+        <v>9.865731</v>
       </c>
       <c r="O6">
-        <v>0.1272794129881144</v>
+        <v>0.1538713650690733</v>
       </c>
       <c r="P6">
-        <v>0.1272794129881144</v>
+        <v>0.1655968959856798</v>
       </c>
       <c r="Q6">
-        <v>5.154076478084943</v>
+        <v>7.9372847828725</v>
       </c>
       <c r="R6">
-        <v>5.154076478084943</v>
+        <v>47.623708697235</v>
       </c>
       <c r="S6">
-        <v>0.01313745548890703</v>
+        <v>0.01548202245427371</v>
       </c>
       <c r="T6">
-        <v>0.01313745548890703</v>
+        <v>0.01160274490973243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -844,55 +844,55 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.2308479124912</v>
+        <v>2.4135925</v>
       </c>
       <c r="H7">
-        <v>17.2308479124912</v>
+        <v>4.827185</v>
       </c>
       <c r="I7">
-        <v>0.8164835035020932</v>
+        <v>0.1006166576043813</v>
       </c>
       <c r="J7">
-        <v>0.8164835035020932</v>
+        <v>0.07006619804477368</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.72021535715015</v>
+        <v>2.3695805</v>
       </c>
       <c r="N7">
-        <v>4.72021535715015</v>
+        <v>4.739161</v>
       </c>
       <c r="O7">
-        <v>0.2539109598758298</v>
+        <v>0.1108718409743963</v>
       </c>
       <c r="P7">
-        <v>0.2539109598758298</v>
+        <v>0.07954710615730251</v>
       </c>
       <c r="Q7">
-        <v>81.33331293325956</v>
+        <v>5.71920172294625</v>
       </c>
       <c r="R7">
-        <v>81.33331293325956</v>
+        <v>22.876806891785</v>
       </c>
       <c r="S7">
-        <v>0.2073141100969969</v>
+        <v>0.01115555406128825</v>
       </c>
       <c r="T7">
-        <v>0.2073141100969969</v>
+        <v>0.005573563293906194</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.2308479124912</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H8">
-        <v>17.2308479124912</v>
+        <v>59.301109</v>
       </c>
       <c r="I8">
-        <v>0.8164835035020932</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J8">
-        <v>0.8164835035020932</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>3.80976776352595</v>
+        <v>2.170377</v>
       </c>
       <c r="N8">
-        <v>3.80976776352595</v>
+        <v>4.340754</v>
       </c>
       <c r="O8">
-        <v>0.2049359439237332</v>
+        <v>0.1015511790371702</v>
       </c>
       <c r="P8">
-        <v>0.2049359439237332</v>
+        <v>0.07285982038608425</v>
       </c>
       <c r="Q8">
-        <v>65.64552891522739</v>
+        <v>42.901921016031</v>
       </c>
       <c r="R8">
-        <v>65.64552891522739</v>
+        <v>257.411526096186</v>
       </c>
       <c r="S8">
-        <v>0.1673268174883581</v>
+        <v>0.08368208054408406</v>
       </c>
       <c r="T8">
-        <v>0.1673268174883581</v>
+        <v>0.06271414713009073</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.2308479124912</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H9">
-        <v>17.2308479124912</v>
+        <v>59.301109</v>
       </c>
       <c r="I9">
-        <v>0.8164835035020932</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J9">
-        <v>0.8164835035020932</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.58071370113964</v>
+        <v>5.061974333333333</v>
       </c>
       <c r="N9">
-        <v>4.58071370113964</v>
+        <v>15.185923</v>
       </c>
       <c r="O9">
-        <v>0.2464068532404745</v>
+        <v>0.2368480046581279</v>
       </c>
       <c r="P9">
-        <v>0.2464068532404745</v>
+        <v>0.2548966428820674</v>
       </c>
       <c r="Q9">
-        <v>78.9295811150018</v>
+        <v>100.0602305654008</v>
       </c>
       <c r="R9">
-        <v>78.9295811150018</v>
+        <v>900.5420750886069</v>
       </c>
       <c r="S9">
-        <v>0.2011871308207087</v>
+        <v>0.1951718728470151</v>
       </c>
       <c r="T9">
-        <v>0.2011871308207087</v>
+        <v>0.2194024838376533</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.2308479124912</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H10">
-        <v>17.2308479124912</v>
+        <v>59.301109</v>
       </c>
       <c r="I10">
-        <v>0.8164835035020932</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J10">
-        <v>0.8164835035020932</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.11321536901337</v>
+        <v>3.815520666666667</v>
       </c>
       <c r="N10">
-        <v>3.11321536901337</v>
+        <v>11.446562</v>
       </c>
       <c r="O10">
-        <v>0.1674668299718481</v>
+        <v>0.1785268745202745</v>
       </c>
       <c r="P10">
-        <v>0.1674668299718481</v>
+        <v>0.1921312406457904</v>
       </c>
       <c r="Q10">
-        <v>53.64334054229955</v>
+        <v>75.42153564858422</v>
       </c>
       <c r="R10">
-        <v>53.64334054229955</v>
+        <v>678.793820837258</v>
       </c>
       <c r="S10">
-        <v>0.1367339040558039</v>
+        <v>0.1471130166536124</v>
       </c>
       <c r="T10">
-        <v>0.1367339040558039</v>
+        <v>0.1653771149900929</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,122 +1092,122 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.2308479124912</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H11">
-        <v>17.2308479124912</v>
+        <v>59.301109</v>
       </c>
       <c r="I11">
-        <v>0.8164835035020932</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J11">
-        <v>0.8164835035020932</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.36612960751815</v>
+        <v>4.666218666666667</v>
       </c>
       <c r="N11">
-        <v>2.36612960751815</v>
+        <v>13.998656</v>
       </c>
       <c r="O11">
-        <v>0.1272794129881144</v>
+        <v>0.2183307357409577</v>
       </c>
       <c r="P11">
-        <v>0.1272794129881144</v>
+        <v>0.2349682939430755</v>
       </c>
       <c r="Q11">
-        <v>40.77041940838774</v>
+        <v>92.23731392327822</v>
       </c>
       <c r="R11">
-        <v>40.77041940838774</v>
+        <v>830.135825309504</v>
       </c>
       <c r="S11">
-        <v>0.1039215410402255</v>
+        <v>0.17991293047259</v>
       </c>
       <c r="T11">
-        <v>0.1039215410402255</v>
+        <v>0.2022491419710786</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.08115502202555</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H12">
-        <v>1.08115502202555</v>
+        <v>59.301109</v>
       </c>
       <c r="I12">
-        <v>0.05123051661156925</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J12">
-        <v>0.05123051661156925</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.72021535715015</v>
+        <v>3.288577</v>
       </c>
       <c r="N12">
-        <v>4.72021535715015</v>
+        <v>9.865731</v>
       </c>
       <c r="O12">
-        <v>0.2539109598758298</v>
+        <v>0.1538713650690733</v>
       </c>
       <c r="P12">
-        <v>0.2539109598758298</v>
+        <v>0.1655968959856798</v>
       </c>
       <c r="Q12">
-        <v>5.103284538425009</v>
+        <v>65.00542104396433</v>
       </c>
       <c r="R12">
-        <v>5.103284538425009</v>
+        <v>585.048789395679</v>
       </c>
       <c r="S12">
-        <v>0.01300798964777819</v>
+        <v>0.1267959277993742</v>
       </c>
       <c r="T12">
-        <v>0.01300798964777819</v>
+        <v>0.1425376571627642</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1216,55 +1216,55 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.08115502202555</v>
+        <v>19.76703633333333</v>
       </c>
       <c r="H13">
-        <v>1.08115502202555</v>
+        <v>59.301109</v>
       </c>
       <c r="I13">
-        <v>0.05123051661156925</v>
+        <v>0.8240384930780011</v>
       </c>
       <c r="J13">
-        <v>0.05123051661156925</v>
+        <v>0.8607507786564448</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.80976776352595</v>
+        <v>2.3695805</v>
       </c>
       <c r="N13">
-        <v>3.80976776352595</v>
+        <v>4.739161</v>
       </c>
       <c r="O13">
-        <v>0.2049359439237332</v>
+        <v>0.1108718409743963</v>
       </c>
       <c r="P13">
-        <v>0.2049359439237332</v>
+        <v>0.07954710615730251</v>
       </c>
       <c r="Q13">
-        <v>4.118949550287129</v>
+        <v>46.83958383825817</v>
       </c>
       <c r="R13">
-        <v>4.118949550287129</v>
+        <v>281.037503029549</v>
       </c>
       <c r="S13">
-        <v>0.01049897427949244</v>
+        <v>0.09136266476132533</v>
       </c>
       <c r="T13">
-        <v>0.01049897427949244</v>
+        <v>0.068470233564765</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.08115502202555</v>
+        <v>1.151594333333333</v>
       </c>
       <c r="H14">
-        <v>1.08115502202555</v>
+        <v>3.454783</v>
       </c>
       <c r="I14">
-        <v>0.05123051661156925</v>
+        <v>0.04800709843776271</v>
       </c>
       <c r="J14">
-        <v>0.05123051661156925</v>
+        <v>0.05014589452853316</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>4.58071370113964</v>
+        <v>2.170377</v>
       </c>
       <c r="N14">
-        <v>4.58071370113964</v>
+        <v>4.340754</v>
       </c>
       <c r="O14">
-        <v>0.2464068532404745</v>
+        <v>0.1015511790371702</v>
       </c>
       <c r="P14">
-        <v>0.2464068532404745</v>
+        <v>0.07285982038608425</v>
       </c>
       <c r="Q14">
-        <v>4.952461622448365</v>
+        <v>2.499393854397</v>
       </c>
       <c r="R14">
-        <v>4.952461622448365</v>
+        <v>14.996363126382</v>
       </c>
       <c r="S14">
-        <v>0.01262355038814063</v>
+        <v>0.004875177448508296</v>
       </c>
       <c r="T14">
-        <v>0.01262355038814063</v>
+        <v>0.003653620868448451</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.08115502202555</v>
+        <v>1.151594333333333</v>
       </c>
       <c r="H15">
-        <v>1.08115502202555</v>
+        <v>3.454783</v>
       </c>
       <c r="I15">
-        <v>0.05123051661156925</v>
+        <v>0.04800709843776271</v>
       </c>
       <c r="J15">
-        <v>0.05123051661156925</v>
+        <v>0.05014589452853316</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.11321536901337</v>
+        <v>5.061974333333333</v>
       </c>
       <c r="N15">
-        <v>3.11321536901337</v>
+        <v>15.185923</v>
       </c>
       <c r="O15">
-        <v>0.1674668299718481</v>
+        <v>0.2368480046581279</v>
       </c>
       <c r="P15">
-        <v>0.1674668299718481</v>
+        <v>0.2548966428820674</v>
       </c>
       <c r="Q15">
-        <v>3.36586843085593</v>
+        <v>5.829340957745444</v>
       </c>
       <c r="R15">
-        <v>3.36586843085593</v>
+        <v>52.464068619709</v>
       </c>
       <c r="S15">
-        <v>0.008579412214759606</v>
+        <v>0.01137038547441043</v>
       </c>
       <c r="T15">
-        <v>0.008579412214759606</v>
+        <v>0.01278202016964134</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,60 +1402,60 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.08115502202555</v>
+        <v>1.151594333333333</v>
       </c>
       <c r="H16">
-        <v>1.08115502202555</v>
+        <v>3.454783</v>
       </c>
       <c r="I16">
-        <v>0.05123051661156925</v>
+        <v>0.04800709843776271</v>
       </c>
       <c r="J16">
-        <v>0.05123051661156925</v>
+        <v>0.05014589452853316</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.36612960751815</v>
+        <v>3.815520666666667</v>
       </c>
       <c r="N16">
-        <v>2.36612960751815</v>
+        <v>11.446562</v>
       </c>
       <c r="O16">
-        <v>0.1272794129881144</v>
+        <v>0.1785268745202745</v>
       </c>
       <c r="P16">
-        <v>0.1272794129881144</v>
+        <v>0.1921312406457904</v>
       </c>
       <c r="Q16">
-        <v>2.558152907931591</v>
+        <v>4.393931978449555</v>
       </c>
       <c r="R16">
-        <v>2.558152907931591</v>
+        <v>39.545387806046</v>
       </c>
       <c r="S16">
-        <v>0.006520590081398378</v>
+        <v>0.008570557238880928</v>
       </c>
       <c r="T16">
-        <v>0.006520590081398378</v>
+        <v>0.009634592929060029</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1464,60 +1464,60 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6134545829154751</v>
+        <v>1.151594333333333</v>
       </c>
       <c r="H17">
-        <v>0.6134545829154751</v>
+        <v>3.454783</v>
       </c>
       <c r="I17">
-        <v>0.02906853740698051</v>
+        <v>0.04800709843776271</v>
       </c>
       <c r="J17">
-        <v>0.02906853740698051</v>
+        <v>0.05014589452853316</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.72021535715015</v>
+        <v>4.666218666666667</v>
       </c>
       <c r="N17">
-        <v>4.72021535715015</v>
+        <v>13.998656</v>
       </c>
       <c r="O17">
-        <v>0.2539109598758298</v>
+        <v>0.2183307357409577</v>
       </c>
       <c r="P17">
-        <v>0.2539109598758298</v>
+        <v>0.2349682939430755</v>
       </c>
       <c r="Q17">
-        <v>2.895637743191765</v>
+        <v>5.373590974627556</v>
       </c>
       <c r="R17">
-        <v>2.895637743191765</v>
+        <v>48.362318771648</v>
       </c>
       <c r="S17">
-        <v>0.007380820235192885</v>
+        <v>0.01048142512270531</v>
       </c>
       <c r="T17">
-        <v>0.007380820235192885</v>
+        <v>0.01178269528561884</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1526,117 +1526,117 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6134545829154751</v>
+        <v>1.151594333333333</v>
       </c>
       <c r="H18">
-        <v>0.6134545829154751</v>
+        <v>3.454783</v>
       </c>
       <c r="I18">
-        <v>0.02906853740698051</v>
+        <v>0.04800709843776271</v>
       </c>
       <c r="J18">
-        <v>0.02906853740698051</v>
+        <v>0.05014589452853316</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.80976776352595</v>
+        <v>3.288577</v>
       </c>
       <c r="N18">
-        <v>3.80976776352595</v>
+        <v>9.865731</v>
       </c>
       <c r="O18">
-        <v>0.2049359439237332</v>
+        <v>0.1538713650690733</v>
       </c>
       <c r="P18">
-        <v>0.2049359439237332</v>
+        <v>0.1655968959856798</v>
       </c>
       <c r="Q18">
-        <v>2.337119494378634</v>
+        <v>3.787106637930334</v>
       </c>
       <c r="R18">
-        <v>2.337119494378634</v>
+        <v>34.083959741373</v>
       </c>
       <c r="S18">
-        <v>0.005957188151981897</v>
+        <v>0.007386917769623926</v>
       </c>
       <c r="T18">
-        <v>0.005957188151981897</v>
+        <v>0.008304004480350374</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6134545829154751</v>
+        <v>1.151594333333333</v>
       </c>
       <c r="H19">
-        <v>0.6134545829154751</v>
+        <v>3.454783</v>
       </c>
       <c r="I19">
-        <v>0.02906853740698051</v>
+        <v>0.04800709843776271</v>
       </c>
       <c r="J19">
-        <v>0.02906853740698051</v>
+        <v>0.05014589452853316</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.58071370113964</v>
+        <v>2.3695805</v>
       </c>
       <c r="N19">
-        <v>4.58071370113964</v>
+        <v>4.739161</v>
       </c>
       <c r="O19">
-        <v>0.2464068532404745</v>
+        <v>0.1108718409743963</v>
       </c>
       <c r="P19">
-        <v>0.2464068532404745</v>
+        <v>0.07954710615730251</v>
       </c>
       <c r="Q19">
-        <v>2.81005981298782</v>
+        <v>2.728795476177167</v>
       </c>
       <c r="R19">
-        <v>2.81005981298782</v>
+        <v>16.372772857063</v>
       </c>
       <c r="S19">
-        <v>0.007162686830757089</v>
+        <v>0.005322635383633817</v>
       </c>
       <c r="T19">
-        <v>0.007162686830757089</v>
+        <v>0.003988960795414122</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6134545829154751</v>
+        <v>0.655778</v>
       </c>
       <c r="H20">
-        <v>0.6134545829154751</v>
+        <v>1.311556</v>
       </c>
       <c r="I20">
-        <v>0.02906853740698051</v>
+        <v>0.02733775087985481</v>
       </c>
       <c r="J20">
-        <v>0.02906853740698051</v>
+        <v>0.01903712877024833</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>3.11321536901337</v>
+        <v>2.170377</v>
       </c>
       <c r="N20">
-        <v>3.11321536901337</v>
+        <v>4.340754</v>
       </c>
       <c r="O20">
-        <v>0.1674668299718481</v>
+        <v>0.1015511790371702</v>
       </c>
       <c r="P20">
-        <v>0.1674668299718481</v>
+        <v>0.07285982038608425</v>
       </c>
       <c r="Q20">
-        <v>1.909816235724144</v>
+        <v>1.423285488306</v>
       </c>
       <c r="R20">
-        <v>1.909816235724144</v>
+        <v>5.693141953223999</v>
       </c>
       <c r="S20">
-        <v>0.00486801581146511</v>
+        <v>0.002776180834073694</v>
       </c>
       <c r="T20">
-        <v>0.00486801581146511</v>
+        <v>0.00138704178286705</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,55 +1712,303 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.655778</v>
+      </c>
+      <c r="H21">
+        <v>1.311556</v>
+      </c>
+      <c r="I21">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J21">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.061974333333333</v>
+      </c>
+      <c r="N21">
+        <v>15.185923</v>
+      </c>
+      <c r="O21">
+        <v>0.2368480046581279</v>
+      </c>
+      <c r="P21">
+        <v>0.2548966428820674</v>
+      </c>
+      <c r="Q21">
+        <v>3.319531404364666</v>
+      </c>
+      <c r="R21">
+        <v>19.917188426188</v>
+      </c>
+      <c r="S21">
+        <v>0.006474891747734595</v>
+      </c>
+      <c r="T21">
+        <v>0.00485250021364992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.6134545829154751</v>
-      </c>
-      <c r="H21">
-        <v>0.6134545829154751</v>
-      </c>
-      <c r="I21">
-        <v>0.02906853740698051</v>
-      </c>
-      <c r="J21">
-        <v>0.02906853740698051</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.36612960751815</v>
-      </c>
-      <c r="N21">
-        <v>2.36612960751815</v>
-      </c>
-      <c r="O21">
-        <v>0.1272794129881144</v>
-      </c>
-      <c r="P21">
-        <v>0.1272794129881144</v>
-      </c>
-      <c r="Q21">
-        <v>1.451513051504003</v>
-      </c>
-      <c r="R21">
-        <v>1.451513051504003</v>
-      </c>
-      <c r="S21">
-        <v>0.003699826377583524</v>
-      </c>
-      <c r="T21">
-        <v>0.003699826377583524</v>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.655778</v>
+      </c>
+      <c r="H22">
+        <v>1.311556</v>
+      </c>
+      <c r="I22">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J22">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.815520666666667</v>
+      </c>
+      <c r="N22">
+        <v>11.446562</v>
+      </c>
+      <c r="O22">
+        <v>0.1785268745202745</v>
+      </c>
+      <c r="P22">
+        <v>0.1921312406457904</v>
+      </c>
+      <c r="Q22">
+        <v>2.502134511745333</v>
+      </c>
+      <c r="R22">
+        <v>15.012807070472</v>
+      </c>
+      <c r="S22">
+        <v>0.004880523220994364</v>
+      </c>
+      <c r="T22">
+        <v>0.003657627168961482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.655778</v>
+      </c>
+      <c r="H23">
+        <v>1.311556</v>
+      </c>
+      <c r="I23">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J23">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.666218666666667</v>
+      </c>
+      <c r="N23">
+        <v>13.998656</v>
+      </c>
+      <c r="O23">
+        <v>0.2183307357409577</v>
+      </c>
+      <c r="P23">
+        <v>0.2349682939430755</v>
+      </c>
+      <c r="Q23">
+        <v>3.060003544789333</v>
+      </c>
+      <c r="R23">
+        <v>18.360021268736</v>
+      </c>
+      <c r="S23">
+        <v>0.005968671263101714</v>
+      </c>
+      <c r="T23">
+        <v>0.004473121668719889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.655778</v>
+      </c>
+      <c r="H24">
+        <v>1.311556</v>
+      </c>
+      <c r="I24">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J24">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.288577</v>
+      </c>
+      <c r="N24">
+        <v>9.865731</v>
+      </c>
+      <c r="O24">
+        <v>0.1538713650690733</v>
+      </c>
+      <c r="P24">
+        <v>0.1655968959856798</v>
+      </c>
+      <c r="Q24">
+        <v>2.156576447906</v>
+      </c>
+      <c r="R24">
+        <v>12.939458687436</v>
+      </c>
+      <c r="S24">
+        <v>0.004206497045801521</v>
+      </c>
+      <c r="T24">
+        <v>0.003152489432832805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.655778</v>
+      </c>
+      <c r="H25">
+        <v>1.311556</v>
+      </c>
+      <c r="I25">
+        <v>0.02733775087985481</v>
+      </c>
+      <c r="J25">
+        <v>0.01903712877024833</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.3695805</v>
+      </c>
+      <c r="N25">
+        <v>4.739161</v>
+      </c>
+      <c r="O25">
+        <v>0.1108718409743963</v>
+      </c>
+      <c r="P25">
+        <v>0.07954710615730251</v>
+      </c>
+      <c r="Q25">
+        <v>1.553918761129</v>
+      </c>
+      <c r="R25">
+        <v>6.215675044516</v>
+      </c>
+      <c r="S25">
+        <v>0.003030986768148926</v>
+      </c>
+      <c r="T25">
+        <v>0.001514348503217182</v>
       </c>
     </row>
   </sheetData>
